--- a/gmarket.xlsx
+++ b/gmarket.xlsx
@@ -423,7 +423,7 @@
   <cols>
     <col width="120" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="120" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -614,7 +614,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>495,480원</t>
+          <t>495,470원</t>
         </is>
       </c>
     </row>
@@ -681,48 +681,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[트롬]LG 트롬 워시타워 W17WTA 24kg+17kg 혜택가 233만원대</t>
+          <t>부토 전기찜기 계란찜기 간편세척 NBE622W 다용도찜기 + 체중계 증정</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2,339,000원</t>
+          <t>22,900원</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[삼성전자]삼성 공식인증 MicroSD EVO Plus 512GB MB-MC512KA EL</t>
+          <t>[트롬]혜택가 223만원대 LG 트롬 워시타워 W17WTA 24kg+17kg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>58,940원</t>
+          <t>2,339,000원</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[로지텍]로지텍코리아 정품 무선 마우스 MX MASTER 3S /무소음 /멀티페어링 /BOLT지원 /윈+맥OS호환 /2가지 컬러</t>
+          <t>[삼성전자]삼성 공식인증 MicroSD EVO Plus 512GB MB-MC512KA EL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>139,000원</t>
+          <t>58,940원</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[비달사순]비달사순 2000W 전문가용 헤어드라이기 VSD5129K</t>
+          <t>[로지텍]로지텍코리아 정품 무선 마우스 MX MASTER 3S /무소음 /멀티페어링 /BOLT지원 /윈+맥OS호환 /2가지 컬러</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22,800원</t>
+          <t>139,000원</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>부토 전기찜기 계란찜기 간편세척 NBE622W 다용도찜기 + 체중계 증정</t>
+          <t>[비달사순]비달사순 2000W 전문가용 헤어드라이기 VSD5129K</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22,900원</t>
+          <t>22,800원</t>
         </is>
       </c>
     </row>
@@ -801,24 +801,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[에어팟]혜택가22만원대 에어팟 프로 MagSafe MLWK3KH/A</t>
+          <t>[라이젠7]AMD 라이젠7-4세대 5800X (버미어) (멀티팩) 回</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>254,990원</t>
+          <t>313,070원</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[라이젠7]AMD 라이젠7-4세대 5800X (버미어) (멀티팩) 回</t>
+          <t>[코드나인]1+1 탁상용 휴대용 선풍기_FAN190 / 화이트</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>313,070원</t>
+          <t>30,500원</t>
         </is>
       </c>
     </row>
@@ -849,24 +849,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[샤오미]샤오미 FRESTECH 가정용 미니 제빙기 대용량 고속제빙</t>
+          <t>[쿠쿠]본사직영 20L 전자레인지 CMW-A201DW 화이트</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>78,300원</t>
+          <t>56,000원</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[쿠쿠]본사직영 20L 전자레인지 CMW-A201DW 화이트</t>
+          <t>[샤오미]샤오미 FRESTECH 가정용 미니 제빙기 대용량 고속제빙</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>56,000원</t>
+          <t>78,300원</t>
         </is>
       </c>
     </row>
@@ -885,744 +885,744 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[코드나인]1+1 탁상용 휴대용 선풍기_FAN190 / 화이트</t>
+          <t>[삼성전자]공식파트너 삼성 UHD TV 163cm KU65UA8070FXKR 티비</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>30,500원</t>
+          <t>1,139,000원</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[삼성전자]공식파트너 삼성 UHD TV 163cm KU65UA8070FXKR 티비</t>
+          <t>[기가바이트]A7 K1 R7 특가109만 라이젠 R7-5800H/16GB/512GB/RTX3060/FHD 144Hz/300nit 가성비 게이밍 노트북</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1,139,000원</t>
+          <t>1,295,000원</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[기가바이트]A7 K1 R7 특가109만 라이젠 R7-5800H/16GB/512GB/RTX3060/FHD 144Hz/300nit 가성비 게이밍 노트북</t>
+          <t>[갤럭시]갤럭시S22플러스 5G 256GB 자급제 SM-S906N</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1,295,000원</t>
+          <t>1,116,190원</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[휘센]LG전자공식인증점 서울경기충청 LG 에어컨 FQ17HCKWC1</t>
+          <t>[위닉스]공식인증점 뽀송 제습기 10리터 DXAE100-JWK</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1,337,000원</t>
+          <t>219,000원</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[갤럭시]갤럭시S22플러스 5G 256GB 자급제 SM-S906N</t>
+          <t>[LG전자]LG 그램16 16ZD95P-GX56K 예약판매115만 인텔i5 16G</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1,116,190원</t>
+          <t>1,379,000원</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[위닉스]공식인증점 뽀송 제습기 10리터 DXAE100-JWK</t>
+          <t>[테팔](10%중복할인) 블렌더 믹서기 블렌드포스 플러스 BL4258</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>219,000원</t>
+          <t>52,900원</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[LG전자]LG 그램16 16ZD95P-GX56K 예약판매115만 인텔i5 16G</t>
+          <t>갤럭시 S22 5G SM-G901N 256GB 자급제 RE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1,379,000원</t>
+          <t>900,000원</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[테팔](10%중복할인) 블렌더 믹서기 블렌드포스 플러스 BL4258</t>
+          <t>[김치플러스](공식인증점) 뚜껑형 김치냉장고 RP20A3111S9 202L</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>52,900원</t>
+          <t>629,000원</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>갤럭시 S22 5G SM-G901N 256GB 자급제 RE</t>
+          <t>[르젠]내일도착르젠2세대 앱연동 BLDC 선풍기 화이트</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>900,000원</t>
+          <t>67,800원</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[김치플러스](공식인증점) 뚜껑형 김치냉장고 RP20A3111S9 202L</t>
+          <t>S22 울트라 노트20/노트10/S21/S20/A53 A32 A23 가죽</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>19,900원</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[다이슨](최종55만원대) (본사) 다이슨 에어랩 스타일러 볼륨앤쉐이프</t>
+          <t>[알피쿨]Cartour알피쿨 K25모델 독일콤프</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>571,330원</t>
+          <t>153,000원</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[르젠]내일도착르젠2세대 앱연동 BLDC 선풍기 화이트</t>
+          <t>[objet]LG 디오스 오브제컬렉션 M873MGB031 875L 1등급</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>67,800원</t>
+          <t>1,990,200원</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[알피쿨]Cartour알피쿨 K25모델 독일콤프</t>
+          <t>[HP]빅터스 16-d1141TX 특가112만 인텔12세대 i7 16GB DDR5 256GB RTX3060 FHD 300nit 100%sRGB 게이밍 노트북</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>153,000원</t>
+          <t>1,378,000원</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[objet]LG 디오스 오브제컬렉션 M873MGB031 875L 1등급</t>
+          <t>[일렉트로룩스]파워PRO 18V 무선청소기 ZB3411 (BEST 인기)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1,990,200원</t>
+          <t>169,000원</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S22 울트라 노트20/노트10/S21/S20/A53 A32 A23 가죽</t>
+          <t>[윈드피아]가정용 업소용 스탠드 리모컨 선풍기  인기상품 1700R</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>19,900원</t>
+          <t>34,900원</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[윈드피아]가정용 업소용 스탠드 리모컨 선풍기  인기상품 1700R</t>
+          <t>[삼성전자]삼성 갤럭시버즈 프로 ANC 블루투스 이어폰 SM-R190</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>34,900원</t>
+          <t>135,380원</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[HP]빅터스 16-d1141TX 특가112만 인텔12세대 i7 16GB DDR5 256GB RTX3060 FHD 300nit 100%sRGB 게이밍 노트북</t>
+          <t>[위닉스]공식인증점 위닉스 제습기 16리터 DO2E160-JWK 1등급</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1,378,000원</t>
+          <t>349,000원</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[삼성전자]삼성 갤럭시버즈 프로 ANC 블루투스 이어폰 SM-R190</t>
+          <t>[엡손]엡손 에코탱크 L3256 정품 무한 잉크젯 복합기</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>135,380원</t>
+          <t>169,000원</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[위닉스]공식인증점 위닉스 제습기 16리터 DO2E160-JWK 1등급</t>
+          <t>[TUF]ASUS TUF F15 FX506HM-HN130 인텔 i5/ RTX 3060/144Hz/ 영상 편집/ 에이수스 게이밍 노트북/ 최종가 103만</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>349,000원</t>
+          <t>1,199,000원</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[일렉트로룩스]파워PRO 18V 무선청소기 ZB3411 (BEST 인기)</t>
+          <t>[삼성전자]갤럭시 버즈2 무선 블루투스 이어폰 SM-R177</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>169,000원</t>
+          <t>97,840원</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[CAS]카스(CAS) 0.1g 디지털 주방저울(전자저울) K-17 1년AS</t>
+          <t>[레노버]SLIM5-15ITL Premiere i5 Plus FreeDos 최대혜택가65만</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>30,400원</t>
+          <t>769,000원</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[TUF]ASUS TUF F15 FX506HM-HN130 인텔 i5/ RTX 3060/144Hz/ 영상 편집/ 에이수스 게이밍 노트북/ 최종가 103만</t>
+          <t>[한일전기]한일 강력 레드모터 저소음 BLDC모터 선풍기 DCF-440R</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1,199,000원</t>
+          <t>69,900원</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[삼성전자]갤럭시 버즈2 무선 블루투스 이어폰 SM-R177</t>
+          <t>[르젠]22년형+15%쿠폰) 르젠 APP연동 입체회전 저소음 선풍기 LZDF-TR08</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>97,840원</t>
+          <t>89,800원</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[레노버]SLIM5-15ITL Premiere i5 Plus FreeDos 최대혜택가65만</t>
+          <t>[대웅모닝컴]대웅 가정용 스탠드선풍기  키높이선풍기</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>769,000원</t>
+          <t>28,800원</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[한일전기]한일 강력 레드모터 저소음 BLDC모터 선풍기 DCF-440R</t>
+          <t>[씽크북]ThinkBook 14 G3 ACL-21A2000BKR 최종가 48만/R7-5700U/8G/256G/14.0FHD/300nits/지문인식/백라이트/사은품</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>71,900원</t>
+          <t>642,530원</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>[르젠]22년형+15%쿠폰) 르젠 APP연동 입체회전 저소음 선풍기 LZDF-TR08</t>
+          <t>[코드나인]1+1 탁상용 휴대용 선풍기_FAN190 /화이트+블랙</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>89,800원</t>
+          <t>30,500원</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[대웅모닝컴]대웅 가정용 스탠드선풍기  키높이선풍기</t>
+          <t>[아이닉](최종혜택가 17.9만) 아이닉 차이슨 무선청소기 New i20 UV살균브러시 BLDC모터탑재</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>28,800원</t>
+          <t>199,000원</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[씽크북]ThinkBook 14 G3 ACL-21A2000BKR 최종가 48만/R7-5700U/8G/256G/14.0FHD/300nits/지문인식/백라이트/사은품</t>
+          <t>[쿠쿠]쿠쿠 CRP-KHTS1060FD IH전기압력밥솥 10인용 hm</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>642,530원</t>
+          <t>345,200원</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[필립스]필립스 1200 전자동 에스프레소 커피머신 EP1224/03</t>
+          <t>[힐링팩토리]1+1 휴대용 넥밴드 목 선풍기 목걸이 여름 목풍기</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>399,000원</t>
+          <t>25,900원</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[아이닉](최종혜택가 17.9만) 아이닉 차이슨 무선청소기 New i20 UV살균브러시 BLDC모터탑재</t>
+          <t>[삼성전자](알파)삼성전자 DDR4 8G PC4-25600 (정품) 수량가능</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>199,000원</t>
+          <t>37,880원</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[플레이스테이션5]PS5 디스크 에디션 PlayStation 5 플스5 본체 1118 / 3% 스마일캐시 적립</t>
+          <t>[비스포크]혜택가181만대 비스포크 AI WF21A9400KV+DV17A9720BV</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>628,000원</t>
+          <t>2,169,000원</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[힐링팩토리]1+1 휴대용 넥밴드 목 선풍기 목걸이 여름 목풍기</t>
+          <t>[다이슨](최종47만원대) 본사 다이슨 슈퍼소닉 헤어 드라이어 (아이언/푸시아) + 스탠드 증정</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>25,900원</t>
+          <t>484,030원</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[삼성전자](알파)삼성전자 DDR4 8G PC4-25600 (정품) 수량가능</t>
+          <t>[플레이스테이션5]PS5 디스크 에디션 PlayStation 5 플스5 본체 1118 / 3% 스마일캐시 적립</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>37,880원</t>
+          <t>628,000원</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[비스포크]혜택가184만대 비스포크 AI WF21A9400KV+DV17A9720BV</t>
+          <t>[필립스]PHILIPS 전기면도기 SkinIQ 5000 S5582/36 오션블루</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2,169,000원</t>
+          <t>159,000원</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[엡손]엡손 에코탱크 L3256 정품 무한 잉크젯 복합기</t>
+          <t>[쿠쿠]본사직영 CRP-DHP0610FD 6인용 IH전기압력 밥솥</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>169,000원</t>
+          <t>224,000원</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>[필립스]PHILIPS 전기면도기 SkinIQ 5000 S5582/36 오션블루</t>
+          <t>[쿠쿠]본사직영 CRP-QS1020FSM 10인용 전기압력 밥솥</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>159,000원</t>
+          <t>135,000원</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>[코드나인]1+1 탁상용 휴대용 선풍기_FAN190 /화이트+블랙</t>
+          <t>[보네이도]에어 써큘레이터 공기순환기 633B (블랙)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>30,500원</t>
+          <t>76,140원</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[보네이도]에어 써큘레이터 공기순환기 633B (블랙)</t>
+          <t>[신일전자]신일 무소음 인공지능 스탠드 DC선풍기 SIF-P14CPK</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>76,140원</t>
+          <t>119,000원</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[신일전자]신일 무소음 인공지능 스탠드 DC선풍기 SIF-P14CPK</t>
+          <t>[쿠쿠]본사직영 CRP-HQB0310FS 3인용 IH전기압력 밥솥</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>119,000원</t>
+          <t>135,000원</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[다이슨](최종47만원대) 본사 다이슨 슈퍼소닉 헤어 드라이어 (아이언/푸시아) + 스탠드 증정</t>
+          <t>[휘센]LG전자공식인증점 서울경기충청 LG 에어컨 FQ17HCKWC1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>484,030원</t>
+          <t>1,337,000원</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>[쿠쿠]쿠쿠 CRP-KHTS1060FD IH전기압력밥솥 10인용 hm</t>
+          <t>[로지텍]로지텍 G304 무선 게이밍 마우스  병행 블랙</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>345,200원</t>
+          <t>41,580원</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[쿠쿠]본사직영 CRP-QS1020FSM 10인용 전기압력 밥솥</t>
+          <t>[삼성전자](알파)삼성전자 DDR4 16G PC4-25600 (정품) 수량가능</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>135,000원</t>
+          <t>78,000원</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[쿠쿠]본사직영 CRP-HQB0310FS 3인용 IH전기압력 밥솥</t>
+          <t>[샤오미]MI 스마트 무선 선풍기 4세대 프로 PRO +  MI FAN2 PRO</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>135,000원</t>
+          <t>102,900원</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[로지텍]로지텍 G304 무선 게이밍 마우스  병행 블랙</t>
+          <t>[objet]LG 디오스 오브제컬렉션 M873MWW031 875L 1등급</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>41,580원</t>
+          <t>1,990,200원</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[쿠쿠]본사직영 CRP-DHP0610FD 6인용 IH전기압력 밥솥</t>
+          <t>[쿠쿠] 10인용 열판압력밥솥 CRP-QS1010FG</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>224,000원</t>
+          <t>155,100원</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>[삼성전자](알파)삼성전자 DDR4 16G PC4-25600 (정품) 수량가능</t>
+          <t>[아이피타임]오늘출발 IPTIME A2003MU 공유기/와이파이/무선</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>78,000원</t>
+          <t>39,500원</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[objet]LG 디오스 오브제컬렉션 M873MWW031 875L 1등급</t>
+          <t>[하임셰프]음성지원 완전자동 스마트식기건조기 HTD-1101 99%살균</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1,990,200원</t>
+          <t>109,000원</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>[쿠쿠] 10인용 열판압력밥솥 CRP-QS1010FG</t>
+          <t>[다이슨]다이슨 에어랩 스타일러 컴플리트 롱 / 정품 / L</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>155,100원</t>
+          <t>735,800원</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>[하임셰프]음성지원 완전자동 스마트식기건조기 HTD-1101 99%살균</t>
+          <t>[아이피타임]EFM ipTIME A604R 유무선 와이파이 공유기 무선 공유기</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>109,000원</t>
+          <t>31,900원</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>[에어팟]혜택가20만원대 에어팟 3세대 Magsafe MME73KH/A</t>
+          <t>[큐씨와이]QCY T13 APP 화이트 TWS 블루투스 이어폰</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>224,350원</t>
+          <t>19,600원</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[다이슨]다이슨 에어랩 스타일러 컴플리트 롱 / 정품 / L</t>
+          <t>[필립스](15% 중복)필립스 전기면도기 3000 시리즈 S3232/52</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>735,800원</t>
+          <t>75,000원</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[샤오미]MI 스마트 무선 선풍기 4세대 프로 PRO +  MI FAN2 PRO</t>
+          <t>[ReQm]고속충전 잔량표시 20000mAh 보조배터리 QP2000A 20W</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>102,900원</t>
+          <t>34,900원</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[아이피타임]오늘출발 IPTIME A2003MU 공유기/와이파이/무선</t>
+          <t>[알로코리아]고속충전 대용량 보조배터리 700QCPD 20000mAh 네이비</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>39,500원</t>
+          <t>29,900원</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[큐씨와이]QCY T13 APP 화이트 TWS 블루투스 이어폰</t>
+          <t>[윈드피아]가정용선풍기 업소용선풍기 스탠드 선풍기 WA-370블랙</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>19,600원</t>
+          <t>23,900원</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[필립스](15% 중복)필립스 전기면도기 3000 시리즈 S3232/52</t>
+          <t>[블린즈]BLDC 스탠드형 에어 써큘레이터 선풍기 저소음 리모컨</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>75,000원</t>
+          <t>32,800원</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>[블린즈]BLDC 스탠드형 에어 써큘레이터 선풍기 저소음 리모컨</t>
+          <t>[삼성전자]삼성전자 데스크탑용 DDR4 8GB램(25600 SAM)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>32,800원</t>
+          <t>37,100원</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>[아이피타임]EFM ipTIME A604R 유무선 와이파이 공유기 무선 공유기</t>
+          <t>[필립스][필립스] 데일리 핸드블렌더 HR-2534</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>31,900원</t>
+          <t>37,510원</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>[필립스][필립스] 데일리 핸드블렌더 HR-2534</t>
+          <t>[쿠쿠]본사직영 CRP-ST0610FW 6인용 트윈프레셔 밥솥</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>37,510원</t>
+          <t>200,000원</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>[ReQm]고속충전 잔량표시 20000mAh 보조배터리 QP2000A 20W</t>
+          <t>[필립스](20% 중복할인)PHILIPS 진공 초고속 믹서기 HR3752/00 진공블렌더 35000RPM</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>34,900원</t>
+          <t>216,930원</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>[알로코리아]고속충전 대용량 보조배터리 700QCPD 20000mAh 네이비</t>
+          <t>프리미엄 IPX8등급 스마트폰 방수팩 1+1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>29,900원</t>
+          <t>15,000원</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>[쿠쿠]본사직영 CRP-ST0610FW 6인용 트윈프레셔 밥솥</t>
+          <t>[샤오미]샤오미 스마트미 3세대 무선선풍기 2S 리모컨 증정</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>200,000원</t>
+          <t>80,000원</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>[필립스](20% 중복할인)PHILIPS 진공 초고속 믹서기 HR3752/00 진공블렌더 35000RPM</t>
+          <t>[쿠쿠]본사직영 CRP-EHS0320FS 3인용 IH전기압력 밥솥</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>216,930원</t>
+          <t>200,000원</t>
         </is>
       </c>
     </row>

--- a/gmarket.xlsx
+++ b/gmarket.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
   <cols>
     <col width="120" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="120" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -437,6 +437,11 @@
           <t>202,000원</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>직구플리즈</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -449,184 +454,264 @@
           <t>930,150원</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>삼성모바일공식스토어</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[르젠]르젠 리모컨 써큘레이터 저소음 선풍기 LZEF-AR03</t>
+          <t>[유파]내일도착유파 선풍기리모컨초미풍발터치 TSK-3528CR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>49,800원</t>
+          <t>29,900원</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CJ온스타일</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[유파]내일도착유파 선풍기리모컨초미풍발터치 TSK-3528CR</t>
+          <t>[르젠]르젠 리모컨 써큘레이터 저소음 선풍기 LZEF-AR03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29,900원</t>
+          <t>49,800원</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[갤럭시]갤럭시S22울트라 5G 512GB 자급제 SM-S908N</t>
+          <t>[대우]대우 에어 써큘레이터DEF-KC1020스탠드선풍기 공기순환</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1,442,800원</t>
+          <t>35,900원</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[대우]대우 에어 써큘레이터DEF-KC1020스탠드선풍기 공기순환</t>
+          <t>[갤럭시]갤럭시S22울트라 5G 512GB 자급제 SM-S908N</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>35,900원</t>
+          <t>1,442,800원</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>삼성모바일공식스토어</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[삼성전자]삼성 갤럭시 워치4 40mm 카드할인7%+필름</t>
+          <t>부토 전기찜기 계란찜기 간편세척 NBE622W 다용도찜기</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>203,840원</t>
+          <t>22,900원</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[다이슨](최종55만원대) 본사 다이슨 에어랩 스타일러 볼륨 앤 쉐이프 + 스탠드 라운드 브러시 증정</t>
+          <t>[삼성전자]삼성 갤럭시 워치4 40mm 카드할인7%+필름</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>571,330원</t>
+          <t>203,840원</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>삼성디지탈파크</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[기가바이트]A5 K1 R5 특가89만 라이젠 R5-5600H/16GB/512GB/RTX3060/FHD 144Hz/300nit 가성비 게이밍 노트북</t>
+          <t>[다이슨](최종55만원대) 본사 다이슨 에어랩 스타일러 볼륨 앤 쉐이프 + 스탠드 라운드 브러시 증정</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1,078,000원</t>
+          <t>571,330원</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>다이슨코리아유한회사</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hulmay 초음파 가정용 셀프 구강청결기 자동</t>
+          <t>[기가바이트]A5 K1 R5 특가89만 라이젠 R5-5600H/16GB/512GB/RTX3060/FHD 144Hz/300nit 가성비 게이밍 노트북</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>39,920원</t>
+          <t>1,078,000원</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>기가바이트공식총판</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[비스포크](최대혜택가 53만원대) 삼성 비스포크 제트 무선청소기 220W VS20B956AXE</t>
+          <t>Hulmay 초음파 가정용 셀프 구강청결기 자동</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>629,560원</t>
+          <t>39,920원</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mqglobal</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[대웅모닝컴](행사) 대웅모닝컴 14형 스탠드 선풍기 (신제품 입고)</t>
+          <t>[비스포크](최대혜택가 53만원대) 삼성 비스포크 제트 무선청소기 220W VS20B956AXE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29,900원</t>
+          <t>629,560원</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>삼성공식판매보보</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[신일전자]신일 기본형 선풍기 ---10% 다운로드 쿠폰---</t>
+          <t>[대웅모닝컴](행사) 대웅모닝컴 14형 스탠드 선풍기 (신제품 입고)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>59,900원</t>
+          <t>29,900원</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[솔러스에어]1+1 2개 무선 선풍기 탁상용 미니 휴대용 캠핑용 벽걸이 사무실 선물용 가정용</t>
+          <t>[삼성전자]갤럭시 A53 5G SM-A536N 128G 자급제 _RM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>59,900원</t>
+          <t>495,430원</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>주식회사리플레이</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[윈드피아](특가) 22년형 가정용 업소용 스탠드선풍기 WA-170</t>
+          <t>[신일전자]신일 기본형 선풍기 ---10% 다운로드 쿠폰---</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>29,900원</t>
+          <t>59,900원</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SHINIL</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[삼성전자]갤럭시 A53 5G SM-A536N 128G 자급제 _RM</t>
+          <t>[솔러스에어]1+1 2개 무선 선풍기 탁상용 미니 휴대용 캠핑용 벽걸이 사무실 선물용 가정용</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>495,470원</t>
+          <t>59,900원</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[갤럭시]갤럭시S22울트라 5G 256GB 자급제 SM-S908N</t>
+          <t>[윈드피아](특가) 22년형 가정용 업소용 스탠드선풍기 WA-170</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1,350,700원</t>
+          <t>29,900원</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
@@ -641,16 +726,26 @@
           <t>209,550원</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[통돌이]혜택가63만원대 LG 통돌이세탁기 T20WT 블랙라벨+ 20kg DD모터</t>
+          <t>[갤럭시]갤럭시S22울트라 5G 256GB 자급제 SM-S908N</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>684,000원</t>
+          <t>1,350,700원</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>삼성모바일공식스토어</t>
         </is>
       </c>
     </row>
@@ -665,76 +760,111 @@
           <t>199,000원</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>E북리더</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[삼성전자]삼성 AF17A7974FZRS 무풍 에어컨 전국(기본설치포함)</t>
+          <t>[통돌이]혜택가63만원대 LG 통돌이세탁기 T20WT 블랙라벨+ 20kg DD모터</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1,839,000원</t>
+          <t>684,000원</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>일등LG</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>부토 전기찜기 계란찜기 간편세척 NBE622W 다용도찜기 + 체중계 증정</t>
+          <t>[삼성전자]삼성 공식인증 MicroSD EVO Plus 512GB MB-MC512KA EL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22,900원</t>
+          <t>58,900원</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>에버랩스</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[트롬]혜택가 223만원대 LG 트롬 워시타워 W17WTA 24kg+17kg</t>
+          <t>[코드나인]1+1 탁상용 휴대용 선풍기_FAN190 / 화이트</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2,339,000원</t>
+          <t>30,500원</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CODE9.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[삼성전자]삼성 공식인증 MicroSD EVO Plus 512GB MB-MC512KA EL</t>
+          <t>[대웅모닝컴]대웅 3D 입체회전 리모컨 스탠드 써큘레이터 선풍기</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>58,940원</t>
+          <t>39,800원</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[로지텍]로지텍코리아 정품 무선 마우스 MX MASTER 3S /무소음 /멀티페어링 /BOLT지원 /윈+맥OS호환 /2가지 컬러</t>
+          <t>[트롬]혜택가 223만원대 LG 트롬 워시타워 W17WTA 24kg+17kg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>139,000원</t>
+          <t>2,339,000원</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>(주)대명유통</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[대웅모닝컴]대웅 3D 입체회전 리모컨 스탠드 써큘레이터 선풍기</t>
+          <t>[로지텍]로지텍코리아 정품 무선 마우스 MX MASTER 3S /무소음 /멀티페어링 /BOLT지원 /윈+맥OS호환 /2가지 컬러</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>39,800원</t>
+          <t>139,000원</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>로지텍코리아_공식몰</t>
         </is>
       </c>
     </row>
@@ -749,6 +879,11 @@
           <t>22,800원</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -761,28 +896,43 @@
           <t>349,000원</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[쿠쿠]본사직영 CRP-CHP1010FD 10인용 IH전기압력 밥솥</t>
+          <t>[라이젠7]AMD 라이젠7-4세대 5800X (버미어) (멀티팩) 回</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>249,000원</t>
+          <t>313,070원</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>(주)마이피씨샵</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[신일전자]신일 스탠드형 리모컨 써큘레이터 선풍기 SIF-P14PDB</t>
+          <t>[쿠쿠]본사직영 CRP-CHP1010FD 10인용 IH전기압력 밥솥</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>74,900원</t>
+          <t>249,000원</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
@@ -797,76 +947,111 @@
           <t>28,000원</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>아비소</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[라이젠7]AMD 라이젠7-4세대 5800X (버미어) (멀티팩) 回</t>
+          <t>[신일전자]신일 스탠드형 리모컨 써큘레이터 선풍기 SIF-P14PDB</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>313,070원</t>
+          <t>74,900원</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[코드나인]1+1 탁상용 휴대용 선풍기_FAN190 / 화이트</t>
+          <t>[에어팟]혜택가22만원대 에어팟 프로 MagSafe MLWK3KH/A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>30,500원</t>
+          <t>254,990원</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Apple공식판매점</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[HP]빅터스 15-fa0051TX 특가69만 인텔 12세대 i5/지포스 RTX3050 FHD 144Hz 최신 가성비 게이밍 노트북</t>
+          <t>[쿠쿠]본사직영 20L 전자레인지 CMW-A201DW 화이트</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>903,500원</t>
+          <t>56,000원</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[삼성전자]갤럭시 A23 128GB SM-A235N 자급제 미개봉</t>
+          <t>[HP]빅터스 15-fa0051TX 특가69만 인텔 12세대 i5/지포스 RTX3050 FHD 144Hz 최신 가성비 게이밍 노트북</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>321,160원</t>
+          <t>903,500원</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>에스라이즈</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[쿠쿠]본사직영 20L 전자레인지 CMW-A201DW 화이트</t>
+          <t>[삼성전자]갤럭시 A23 128GB SM-A235N 자급제 미개봉</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>56,000원</t>
+          <t>321,160원</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>신세계몰</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[샤오미]샤오미 FRESTECH 가정용 미니 제빙기 대용량 고속제빙</t>
+          <t>[샤오미]샤오미 FRESTECH 가정용 미니 제빙기 대용량 고속제빙/무료배송</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>78,300원</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>mijiagogo</t>
         </is>
       </c>
     </row>
@@ -881,6 +1066,11 @@
           <t>19,900원</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>레드울프</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -893,6 +1083,11 @@
           <t>1,139,000원</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>삼성공식판매다솜</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -905,6 +1100,11 @@
           <t>1,295,000원</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>기가바이트공식총판</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -917,76 +1117,111 @@
           <t>1,116,190원</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>삼성모바일공식스토어</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[위닉스]공식인증점 뽀송 제습기 10리터 DXAE100-JWK</t>
+          <t>[테팔](10%중복할인) 블렌더 믹서기 블렌드포스 플러스 BL4258</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>219,000원</t>
+          <t>52,900원</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[LG전자]LG 그램16 16ZD95P-GX56K 예약판매115만 인텔i5 16G</t>
+          <t>[코드나인]1+1 탁상용 휴대용 선풍기_FAN190 /화이트+블랙</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1,379,000원</t>
+          <t>30,500원</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CODE9.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[테팔](10%중복할인) 블렌더 믹서기 블렌드포스 플러스 BL4258</t>
+          <t>[위닉스]공식인증점 뽀송 제습기 10리터 DXAE100-JWK</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>52,900원</t>
+          <t>219,000원</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>갤럭시 S22 5G SM-G901N 256GB 자급제 RE</t>
+          <t>[LG전자]LG 그램16 16ZD95P-GX56K 예약판매117만 인텔i5 16G</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>900,000원</t>
+          <t>1,379,000원</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>LG공식판매점3S컴퍼니</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[김치플러스](공식인증점) 뚜껑형 김치냉장고 RP20A3111S9 202L</t>
+          <t>갤럭시 S22 5G SM-G901N 256GB 자급제 RE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>900,000원</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>주식회사리플레이</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[르젠]내일도착르젠2세대 앱연동 BLDC 선풍기 화이트</t>
+          <t>[김치플러스](공식인증점) 뚜껑형 김치냉장고 RP20A3111S9 202L</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>67,800원</t>
+          <t>629,000원</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
@@ -1001,436 +1236,621 @@
           <t>19,900원</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>꾹이몰</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[알피쿨]Cartour알피쿨 K25모델 독일콤프</t>
+          <t>[엡손]엡손 에코탱크 L3256 정품 무한 잉크젯 복합기</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>153,000원</t>
+          <t>169,000원</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>대천사가브리엘</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[objet]LG 디오스 오브제컬렉션 M873MGB031 875L 1등급</t>
+          <t>[르젠]내일도착르젠2세대 앱연동 BLDC 선풍기 화이트</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1,990,200원</t>
+          <t>67,800원</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CJ온스타일</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[HP]빅터스 16-d1141TX 특가112만 인텔12세대 i7 16GB DDR5 256GB RTX3060 FHD 300nit 100%sRGB 게이밍 노트북</t>
+          <t>[알피쿨]Cartour알피쿨 K25모델 독일콤프</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1,378,000원</t>
+          <t>153,000원</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CARTOUR</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[일렉트로룩스]파워PRO 18V 무선청소기 ZB3411 (BEST 인기)</t>
+          <t>[objet]LG 디오스 오브제컬렉션 M873MGB031 875L 1등급</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>169,000원</t>
+          <t>1,990,200원</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CDS유통</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[윈드피아]가정용 업소용 스탠드 리모컨 선풍기  인기상품 1700R</t>
+          <t>[레노버]SLIM5-15ITL Premiere i5 Plus FreeDos 최대혜택가65만</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>34,900원</t>
+          <t>769,000원</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>(주)플러스샵</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[삼성전자]삼성 갤럭시버즈 프로 ANC 블루투스 이어폰 SM-R190</t>
+          <t>[일렉트로룩스]파워PRO 18V 무선청소기 ZB3411 (BEST 인기)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>135,380원</t>
+          <t>169,000원</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[위닉스]공식인증점 위닉스 제습기 16리터 DO2E160-JWK 1등급</t>
+          <t>[CAS]카스(CAS) 0.1g 디지털 주방저울(전자저울) K-17 1년AS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>349,000원</t>
+          <t>30,400원</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>선데이(SUNDAY)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[엡손]엡손 에코탱크 L3256 정품 무한 잉크젯 복합기</t>
+          <t>[대웅모닝컴]대웅 가정용 스탠드선풍기  키높이선풍기</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>169,000원</t>
+          <t>28,800원</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>lainzone</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[TUF]ASUS TUF F15 FX506HM-HN130 인텔 i5/ RTX 3060/144Hz/ 영상 편집/ 에이수스 게이밍 노트북/ 최종가 103만</t>
+          <t>[HP]빅터스 16-d1141TX 특가112만 인텔12세대 i7 16GB DDR5 256GB RTX3060 FHD 300nit 100%sRGB 게이밍 노트북</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1,199,000원</t>
+          <t>1,378,000원</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>에스라이즈</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[삼성전자]갤럭시 버즈2 무선 블루투스 이어폰 SM-R177</t>
+          <t>[윈드피아]가정용 업소용 스탠드 리모컨 선풍기  인기상품 1700R</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>97,840원</t>
+          <t>34,900원</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>윈드피아</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[레노버]SLIM5-15ITL Premiere i5 Plus FreeDos 최대혜택가65만</t>
+          <t>[삼성전자]삼성 갤럭시버즈 프로 ANC 블루투스 이어폰 SM-R190</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>769,000원</t>
+          <t>135,380원</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>삼성랜드</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[한일전기]한일 강력 레드모터 저소음 BLDC모터 선풍기 DCF-440R</t>
+          <t>[위닉스]공식인증점 위닉스 제습기 16리터 DO2E160-JWK 1등급</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>69,900원</t>
+          <t>349,000원</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[르젠]22년형+15%쿠폰) 르젠 APP연동 입체회전 저소음 선풍기 LZDF-TR08</t>
+          <t>[쿠쿠]쿠쿠 CRP-KHTS1060FD IH전기압력밥솥 10인용 hm</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>89,800원</t>
+          <t>345,200원</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>best가전</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[대웅모닝컴]대웅 가정용 스탠드선풍기  키높이선풍기</t>
+          <t>[삼성전자]갤럭시 버즈2 무선 블루투스 이어폰 SM-R177</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>28,800원</t>
+          <t>97,840원</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>jeyoumall</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[씽크북]ThinkBook 14 G3 ACL-21A2000BKR 최종가 48만/R7-5700U/8G/256G/14.0FHD/300nits/지문인식/백라이트/사은품</t>
+          <t>[한일전기]한일 강력 레드모터 저소음 BLDC모터 선풍기 DCF-440R</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>642,530원</t>
+          <t>69,900원</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>GARAM SHOP</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>[코드나인]1+1 탁상용 휴대용 선풍기_FAN190 /화이트+블랙</t>
+          <t>[TUF]ASUS TUF F15 FX506HM-HN130 인텔 i5/ RTX 3060/144Hz/ 영상 편집/ 에이수스 게이밍 노트북/ 최종가 103만</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>30,500원</t>
+          <t>1,199,000원</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>로지텍코리아_공식몰</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[아이닉](최종혜택가 17.9만) 아이닉 차이슨 무선청소기 New i20 UV살균브러시 BLDC모터탑재</t>
+          <t>[씽크북]ThinkBook 14 G3 ACL-21A2000BKR 최종가 48만/R7-5700U/8G/256G/14.0FHD/300nits/지문인식/백라이트/사은품</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>199,000원</t>
+          <t>642,530원</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>주식회사주본</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[쿠쿠]쿠쿠 CRP-KHTS1060FD IH전기압력밥솥 10인용 hm</t>
+          <t>[힐링팩토리]1+1 휴대용 넥밴드 목 선풍기 목걸이 여름 목풍기</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>345,200원</t>
+          <t>25,900원</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[힐링팩토리]1+1 휴대용 넥밴드 목 선풍기 목걸이 여름 목풍기</t>
+          <t>[아이닉](최종혜택가 17.9만) 아이닉 차이슨 무선청소기 New i20 UV살균브러시 BLDC모터탑재</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>25,900원</t>
+          <t>199,000원</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>아이닉</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[삼성전자](알파)삼성전자 DDR4 8G PC4-25600 (정품) 수량가능</t>
+          <t>[보네이도]에어 써큘레이터 공기순환기 633B (블랙)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>37,880원</t>
+          <t>76,140원</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[비스포크]혜택가181만대 비스포크 AI WF21A9400KV+DV17A9720BV</t>
+          <t>[쿠쿠]본사직영 CRP-DHP0610FD 6인용 IH전기압력 밥솥</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2,169,000원</t>
+          <t>224,000원</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[다이슨](최종47만원대) 본사 다이슨 슈퍼소닉 헤어 드라이어 (아이언/푸시아) + 스탠드 증정</t>
+          <t>[쿠쿠]본사직영 CRP-QS1020FSM 10인용 전기압력 밥솥</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>484,030원</t>
+          <t>135,000원</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[플레이스테이션5]PS5 디스크 에디션 PlayStation 5 플스5 본체 1118 / 3% 스마일캐시 적립</t>
+          <t>[다이슨](최종47만원대) 본사 다이슨 슈퍼소닉 헤어 드라이어 (아이언/푸시아) + 스탠드 증정</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>628,000원</t>
+          <t>484,030원</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>다이슨코리아유한회사</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[필립스]PHILIPS 전기면도기 SkinIQ 5000 S5582/36 오션블루</t>
+          <t>[플레이스테이션5]PS5 디스크 에디션 PlayStation 5 플스5 본체 1118 / 3% 스마일캐시 적립</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>159,000원</t>
+          <t>628,000원</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PlayShop</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[쿠쿠]본사직영 CRP-DHP0610FD 6인용 IH전기압력 밥솥</t>
+          <t>[필립스]PHILIPS 전기면도기 SkinIQ 5000 S5582/36 오션블루</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>224,000원</t>
+          <t>159,000원</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>(주)필립스코리아</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>[쿠쿠]본사직영 CRP-QS1020FSM 10인용 전기압력 밥솥</t>
+          <t>[삼성전자](알파)삼성전자 DDR4 8G PC4-25600 (정품) 수량가능</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>135,000원</t>
+          <t>37,880원</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>알파전자1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>[보네이도]에어 써큘레이터 공기순환기 633B (블랙)</t>
+          <t>[쿠쿠]본사직영 CRP-HQB0310FS 3인용 IH전기압력 밥솥</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>76,140원</t>
+          <t>135,000원</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[신일전자]신일 무소음 인공지능 스탠드 DC선풍기 SIF-P14CPK</t>
+          <t>[휘센]LG전자공식인증점 서울경기충청 LG 에어컨 FQ17HCKWC1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>119,000원</t>
+          <t>1,337,000원</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>네고네고</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[쿠쿠]본사직영 CRP-HQB0310FS 3인용 IH전기압력 밥솥</t>
+          <t>[신일전자]신일 무소음 인공지능 스탠드 DC선풍기 SIF-P14CPK</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>135,000원</t>
+          <t>119,000원</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SHINIL</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[휘센]LG전자공식인증점 서울경기충청 LG 에어컨 FQ17HCKWC1</t>
+          <t>[샤오미]MI 스마트 무선 선풍기 4세대 프로 PRO +  MI FAN2 PRO</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1,337,000원</t>
+          <t>102,900원</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>youchen019</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>[로지텍]로지텍 G304 무선 게이밍 마우스  병행 블랙</t>
+          <t>[쿠쿠] 10인용 열판압력밥솥 CRP-QS1010FG</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>41,580원</t>
+          <t>155,100원</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>롯데아이몰</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[삼성전자](알파)삼성전자 DDR4 16G PC4-25600 (정품) 수량가능</t>
+          <t>[아이피타임]오늘출발 IPTIME A2003MU 공유기/와이파이/무선</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>78,000원</t>
+          <t>39,500원</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>주수빈인포텍</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[샤오미]MI 스마트 무선 선풍기 4세대 프로 PRO +  MI FAN2 PRO</t>
+          <t>[로지텍]로지텍 G304 무선 게이밍 마우스  병행 블랙</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>102,900원</t>
+          <t>41,580원</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>다다다다익선</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[objet]LG 디오스 오브제컬렉션 M873MWW031 875L 1등급</t>
+          <t>[삼성전자](알파)삼성전자 DDR4 16G PC4-25600 (정품) 수량가능</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1,990,200원</t>
+          <t>77,650원</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>알파전자1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[쿠쿠] 10인용 열판압력밥솥 CRP-QS1010FG</t>
+          <t>[아이피타임]EFM ipTIME A604R 유무선 와이파이 공유기 무선 공유기</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>155,100원</t>
+          <t>31,900원</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>[아이피타임]오늘출발 IPTIME A2003MU 공유기/와이파이/무선</t>
+          <t>[objet]LG 디오스 오브제컬렉션 M873MWW031 875L 1등급</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>39,500원</t>
+          <t>1,990,200원</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CDS유통</t>
         </is>
       </c>
     </row>
@@ -1445,6 +1865,11 @@
           <t>109,000원</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1457,16 +1882,26 @@
           <t>735,800원</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>리안STORE</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>[아이피타임]EFM ipTIME A604R 유무선 와이파이 공유기 무선 공유기</t>
+          <t>[삼성전자]삼성전자 데스크탑용 DDR4 8GB램(25600 SAM)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>31,900원</t>
+          <t>37,100원</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>티에스지</t>
         </is>
       </c>
     </row>
@@ -1481,148 +1916,213 @@
           <t>19,600원</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[필립스](15% 중복)필립스 전기면도기 3000 시리즈 S3232/52</t>
+          <t>[소닉케어](15%중복) (1+1특가) 소닉케어 1100 시리즈 HX3641/41 전동칫솔</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>75,000원</t>
+          <t>59,900원</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[ReQm]고속충전 잔량표시 20000mAh 보조배터리 QP2000A 20W</t>
+          <t>[필립스](15% 중복)필립스 전기면도기 3000 시리즈 S3232/52</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>34,900원</t>
+          <t>75,000원</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[알로코리아]고속충전 대용량 보조배터리 700QCPD 20000mAh 네이비</t>
+          <t>[윈드피아]가정용선풍기 업소용선풍기 스탠드 선풍기 WA-370블랙</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>29,900원</t>
+          <t>23,900원</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>윈드피아</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[윈드피아]가정용선풍기 업소용선풍기 스탠드 선풍기 WA-370블랙</t>
+          <t>[ReQm]고속충전 잔량표시 20000mAh 보조배터리 QP2000A 20W</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>23,900원</t>
+          <t>34,900원</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>리큐엠공식몰</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[블린즈]BLDC 스탠드형 에어 써큘레이터 선풍기 저소음 리모컨</t>
+          <t>[알로코리아]고속충전 대용량 보조배터리 700QCPD 20000mAh 네이비</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>32,800원</t>
+          <t>29,900원</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>[삼성전자]삼성전자 데스크탑용 DDR4 8GB램(25600 SAM)</t>
+          <t>[필립스](20% 중복할인)PHILIPS 진공 초고속 믹서기 HR3752/00 진공블렌더 35000RPM</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>37,100원</t>
+          <t>189,930원</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>필립스생활가전코리아</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>[필립스][필립스] 데일리 핸드블렌더 HR-2534</t>
+          <t>[블린즈]BLDC 스탠드형 에어 써큘레이터 선풍기 저소음 리모컨</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>37,510원</t>
+          <t>32,800원</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>블린즈</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>[쿠쿠]본사직영 CRP-ST0610FW 6인용 트윈프레셔 밥솥</t>
+          <t>[쿠쿠]본사직영 CRP-EHS0320FS 3인용 IH전기압력 밥솥</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>200,000원</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>[필립스](20% 중복할인)PHILIPS 진공 초고속 믹서기 HR3752/00 진공블렌더 35000RPM</t>
+          <t>[쿠쿠]본사직영 CRP-ST0610FW 6인용 트윈프레셔 밥솥</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>216,930원</t>
+          <t>200,000원</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>프리미엄 IPX8등급 스마트폰 방수팩 1+1</t>
+          <t>[엔보우]모노 탁상용 무선 휴대용 선풍기 2세대 1+1(할인 행사)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>15,000원</t>
+          <t>29,900원</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>엔보우</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>[샤오미]샤오미 스마트미 3세대 무선선풍기 2S 리모컨 증정</t>
+          <t>프리미엄 IPX8등급 스마트폰 방수팩 1+1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>80,000원</t>
+          <t>15,000원</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>스마일배송</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>[쿠쿠]본사직영 CRP-EHS0320FS 3인용 IH전기압력 밥솥</t>
+          <t>[삼성전자]삼성정품 무선충전 보조배터리 10000mAh EB-U1200 RM</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>200,000원</t>
+          <t>42,030원</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>주식회사리플레이</t>
         </is>
       </c>
     </row>
